--- a/TestEnviroment.xlsx
+++ b/TestEnviroment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>beta.esxi6.alv.pub</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,38 @@
   </si>
   <si>
     <t>spotfire server/SpotFire web player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w7.alv.pub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500 GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50 GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200 GB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -568,15 +600,16 @@
     <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.5703125" customWidth="1"/>
-    <col min="10" max="10" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.5703125" customWidth="1"/>
+    <col min="11" max="11" width="33.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -590,25 +623,28 @@
         <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,25 +658,28 @@
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -654,25 +693,28 @@
         <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -686,25 +728,28 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -718,20 +763,23 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -745,20 +793,23 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -772,20 +823,23 @@
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -799,22 +853,25 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -828,22 +885,51 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>48</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/TestEnviroment.xlsx
+++ b/TestEnviroment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -591,7 +591,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/TestEnviroment.xlsx
+++ b/TestEnviroment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spotfire server/SpotFire web player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DISK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,6 +231,11 @@
   </si>
   <si>
     <t>200 GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotfire server/SpotFire web player
+SQL Server 2012 {dbUser:sa;Password:Sophiroth+2017}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,7 +299,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -307,6 +308,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,7 +595,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -623,7 +627,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>28</v>
@@ -658,7 +662,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -693,7 +697,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -728,7 +732,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
@@ -763,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>19</v>
@@ -793,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
@@ -823,7 +827,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>
@@ -853,7 +857,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>1</v>
@@ -871,7 +875,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -885,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
@@ -899,8 +903,8 @@
       <c r="I9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J9" t="s">
-        <v>48</v>
+      <c r="J9" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="K9" t="s">
         <v>44</v>
@@ -908,10 +912,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -920,7 +924,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>

--- a/TestEnviroment.xlsx
+++ b/TestEnviroment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
   <si>
     <t>beta.esxi6.alv.pub</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>sophiroth</t>
-  </si>
-  <si>
-    <t>esxi6.alv.pub</t>
   </si>
   <si>
     <t>192.168.1.215</t>
@@ -236,6 +233,70 @@
   <si>
     <t>spotfire server/SpotFire web player
 SQL Server 2012 {dbUser:sa;Password:Sophiroth+2017}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1.alv.pub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c2.alv.pub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c3.alv.pub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c4.alv.pub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rhel6.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yiyou project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VM ENVIRONMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vmware Workstation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esxi6.alv.pub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esxi host in beta.esxi6.alv.pub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,33 +653,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.5703125" customWidth="1"/>
-    <col min="11" max="11" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.5703125" customWidth="1"/>
+    <col min="12" max="12" width="33.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>33</v>
@@ -627,313 +689,477 @@
         <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
+      <c r="K8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="1">
+      <c r="F10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9">
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10">
+      <c r="H12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="F13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14">
         <v>4</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
